--- a/rad_pipeline/huvec_week_one_layout.xlsx
+++ b/rad_pipeline/huvec_week_one_layout.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="76">
   <si>
     <t>Location</t>
   </si>
@@ -52,34 +52,34 @@
     <t>r03c12</t>
   </si>
   <si>
+    <t>r07c02</t>
+  </si>
+  <si>
+    <t>r07c04</t>
+  </si>
+  <si>
+    <t>r08c01</t>
+  </si>
+  <si>
+    <t>r08c03</t>
+  </si>
+  <si>
+    <t>r07c10</t>
+  </si>
+  <si>
+    <t>r07c12</t>
+  </si>
+  <si>
+    <t>r08c09</t>
+  </si>
+  <si>
+    <t>r08c11</t>
+  </si>
+  <si>
+    <t>r02c01</t>
+  </si>
+  <si>
     <t>r04c11</t>
-  </si>
-  <si>
-    <t>r07c02</t>
-  </si>
-  <si>
-    <t>r07c04</t>
-  </si>
-  <si>
-    <t>r08c01</t>
-  </si>
-  <si>
-    <t>r08c03</t>
-  </si>
-  <si>
-    <t>r07c10</t>
-  </si>
-  <si>
-    <t>r07c12</t>
-  </si>
-  <si>
-    <t>r08c09</t>
-  </si>
-  <si>
-    <t>r08c11</t>
-  </si>
-  <si>
-    <t>r02c01</t>
   </si>
   <si>
     <t>r07c09</t>
@@ -616,7 +616,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>0.001</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -648,7 +648,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>2.0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -675,14 +675,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
+    <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -1699,7 +1692,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>1.0</v>
@@ -1779,7 +1772,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1">
         <v>0.001</v>
@@ -1787,7 +1780,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>2.0</v>
@@ -1795,7 +1788,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>2.0</v>
@@ -1803,7 +1796,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>2.0</v>
@@ -1811,7 +1804,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>2.0</v>
@@ -2880,7 +2873,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
@@ -3008,7 +3001,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>56</v>
@@ -3024,7 +3017,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>58</v>
@@ -3040,7 +3033,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>35</v>
@@ -4210,7 +4203,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>56</v>
@@ -4226,7 +4219,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>58</v>

--- a/rad_pipeline/huvec_week_one_layout.xlsx
+++ b/rad_pipeline/huvec_week_one_layout.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="76">
   <si>
     <t>Location</t>
   </si>
@@ -52,34 +52,34 @@
     <t>r03c12</t>
   </si>
   <si>
+    <t>r07c04</t>
+  </si>
+  <si>
+    <t>r08c01</t>
+  </si>
+  <si>
+    <t>r08c03</t>
+  </si>
+  <si>
+    <t>r07c10</t>
+  </si>
+  <si>
+    <t>r07c12</t>
+  </si>
+  <si>
+    <t>r08c09</t>
+  </si>
+  <si>
+    <t>r08c11</t>
+  </si>
+  <si>
+    <t>r02c01</t>
+  </si>
+  <si>
+    <t>r04c11</t>
+  </si>
+  <si>
     <t>r07c02</t>
-  </si>
-  <si>
-    <t>r07c04</t>
-  </si>
-  <si>
-    <t>r08c01</t>
-  </si>
-  <si>
-    <t>r08c03</t>
-  </si>
-  <si>
-    <t>r07c10</t>
-  </si>
-  <si>
-    <t>r07c12</t>
-  </si>
-  <si>
-    <t>r08c09</t>
-  </si>
-  <si>
-    <t>r08c11</t>
-  </si>
-  <si>
-    <t>r02c01</t>
-  </si>
-  <si>
-    <t>r04c11</t>
   </si>
   <si>
     <t>r07c09</t>
@@ -640,7 +640,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>2.0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -667,14 +667,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
+    <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -1692,7 +1685,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
         <v>1.0</v>
@@ -1772,7 +1765,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1">
         <v>0.001</v>
@@ -1780,7 +1773,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
         <v>2.0</v>
@@ -1788,7 +1781,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
         <v>2.0</v>
@@ -1796,7 +1789,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
         <v>2.0</v>
@@ -1804,7 +1797,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1">
         <v>2.0</v>
@@ -2873,7 +2866,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
@@ -3001,7 +2994,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>56</v>
@@ -3017,7 +3010,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>58</v>
@@ -3033,7 +3026,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>35</v>
@@ -4203,7 +4196,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>56</v>
@@ -4219,7 +4212,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>58</v>

--- a/rad_pipeline/huvec_week_one_layout.xlsx
+++ b/rad_pipeline/huvec_week_one_layout.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="76">
   <si>
     <t>Location</t>
   </si>
@@ -52,34 +52,34 @@
     <t>r03c12</t>
   </si>
   <si>
+    <t>r08c01</t>
+  </si>
+  <si>
+    <t>r08c03</t>
+  </si>
+  <si>
+    <t>r07c10</t>
+  </si>
+  <si>
+    <t>r07c12</t>
+  </si>
+  <si>
+    <t>r08c09</t>
+  </si>
+  <si>
+    <t>r08c11</t>
+  </si>
+  <si>
+    <t>r02c01</t>
+  </si>
+  <si>
+    <t>r04c11</t>
+  </si>
+  <si>
+    <t>r07c02</t>
+  </si>
+  <si>
     <t>r07c04</t>
-  </si>
-  <si>
-    <t>r08c01</t>
-  </si>
-  <si>
-    <t>r08c03</t>
-  </si>
-  <si>
-    <t>r07c10</t>
-  </si>
-  <si>
-    <t>r07c12</t>
-  </si>
-  <si>
-    <t>r08c09</t>
-  </si>
-  <si>
-    <t>r08c11</t>
-  </si>
-  <si>
-    <t>r02c01</t>
-  </si>
-  <si>
-    <t>r04c11</t>
-  </si>
-  <si>
-    <t>r07c02</t>
   </si>
   <si>
     <t>r07c09</t>
@@ -632,7 +632,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>2.0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -659,14 +659,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
+    <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -1685,7 +1678,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>1.0</v>
@@ -1765,7 +1758,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1">
         <v>0.001</v>
@@ -1773,7 +1766,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>2.0</v>
@@ -1781,7 +1774,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>2.0</v>
@@ -1789,7 +1782,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1">
         <v>2.0</v>
@@ -1797,7 +1790,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1">
         <v>2.0</v>
@@ -2866,7 +2859,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
@@ -2994,7 +2987,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>56</v>
@@ -3010,7 +3003,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>58</v>
@@ -3026,7 +3019,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>35</v>
@@ -4196,7 +4189,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>56</v>
@@ -4212,7 +4205,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>58</v>

--- a/rad_pipeline/huvec_week_one_layout.xlsx
+++ b/rad_pipeline/huvec_week_one_layout.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="76">
   <si>
     <t>Location</t>
   </si>
@@ -49,37 +49,37 @@
     <t>r02c11</t>
   </si>
   <si>
+    <t>r08c03</t>
+  </si>
+  <si>
+    <t>r07c10</t>
+  </si>
+  <si>
+    <t>r07c12</t>
+  </si>
+  <si>
+    <t>r08c09</t>
+  </si>
+  <si>
+    <t>r08c11</t>
+  </si>
+  <si>
+    <t>r02c01</t>
+  </si>
+  <si>
     <t>r03c12</t>
   </si>
   <si>
+    <t>r04c11</t>
+  </si>
+  <si>
+    <t>r07c02</t>
+  </si>
+  <si>
+    <t>r07c04</t>
+  </si>
+  <si>
     <t>r08c01</t>
-  </si>
-  <si>
-    <t>r08c03</t>
-  </si>
-  <si>
-    <t>r07c10</t>
-  </si>
-  <si>
-    <t>r07c12</t>
-  </si>
-  <si>
-    <t>r08c09</t>
-  </si>
-  <si>
-    <t>r08c11</t>
-  </si>
-  <si>
-    <t>r02c01</t>
-  </si>
-  <si>
-    <t>r04c11</t>
-  </si>
-  <si>
-    <t>r07c02</t>
-  </si>
-  <si>
-    <t>r07c04</t>
   </si>
   <si>
     <t>r07c09</t>
@@ -608,7 +608,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>0.001</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -616,7 +616,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>2.0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -624,7 +624,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>2.0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -643,22 +643,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
+    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -1678,7 +1664,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1">
         <v>1.0</v>
@@ -1750,7 +1736,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1">
         <v>0.001</v>
@@ -1758,7 +1744,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1">
         <v>0.001</v>
@@ -1766,7 +1752,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1">
         <v>2.0</v>
@@ -1774,7 +1760,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
         <v>2.0</v>
@@ -1782,7 +1768,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>2.0</v>
@@ -1790,7 +1776,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1">
         <v>2.0</v>
@@ -2859,7 +2845,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
@@ -2987,7 +2973,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>56</v>
@@ -3003,7 +2989,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>58</v>
@@ -3019,7 +3005,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>35</v>
@@ -4189,7 +4175,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>56</v>
@@ -4205,7 +4191,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>58</v>
